--- a/Evaluations.xlsx
+++ b/Evaluations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projetos\UpWork\Elizabeth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE99414E-9C33-4204-A5BB-D26F7301CDA6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75DFCC30-A112-4C9C-91D8-CE4FC69ECBF6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EE0FEFF8-FC80-46F4-B8FE-7E29EAD0AC58}"/>
   </bookViews>
@@ -38,9 +38,6 @@
     <t>Readability</t>
   </si>
   <si>
-    <t>Identation</t>
-  </si>
-  <si>
     <t>Comments</t>
   </si>
   <si>
@@ -63,6 +60,9 @@
   </si>
   <si>
     <t>Average</t>
+  </si>
+  <si>
+    <t>Indentation</t>
   </si>
 </sst>
 </file>
@@ -70,7 +70,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -135,15 +135,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,7 +461,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,49 +478,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="I2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="J2" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -534,7 +534,7 @@
         <v>7</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -551,17 +551,17 @@
       <c r="I3">
         <v>7</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="2">
         <f>SUM(D3:I3)/6</f>
-        <v>5.666666666666667</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10190302</v>
       </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="5"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -571,17 +571,17 @@
         <v>7</v>
       </c>
       <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>6</v>
       </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>7</v>
-      </c>
       <c r="G5">
         <v>7</v>
       </c>
@@ -591,9 +591,9 @@
       <c r="I5">
         <v>7</v>
       </c>
-      <c r="J5" s="6">
-        <f t="shared" ref="J4:J12" si="0">SUM(D5:I5)/6</f>
-        <v>5.5</v>
+      <c r="J5" s="4">
+        <f t="shared" ref="J5:J12" si="0">SUM(D5:I5)/6</f>
+        <v>5.166666666666667</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -604,10 +604,10 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -624,9 +624,9 @@
       <c r="I6">
         <v>7</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="2">
         <f t="shared" si="0"/>
-        <v>5.5</v>
+        <v>5.166666666666667</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -637,10 +637,10 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -657,9 +657,9 @@
       <c r="I7">
         <v>7</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="2">
         <f t="shared" si="0"/>
-        <v>5.333333333333333</v>
+        <v>5.166666666666667</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -670,10 +670,10 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -690,9 +690,9 @@
       <c r="I8">
         <v>7</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="2">
         <f t="shared" si="0"/>
-        <v>5.666666666666667</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -700,13 +700,13 @@
         <v>10191709</v>
       </c>
       <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
         <v>5</v>
-      </c>
-      <c r="C9">
-        <v>7</v>
-      </c>
-      <c r="D9">
-        <v>7</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -723,9 +723,9 @@
       <c r="I9">
         <v>6</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="2">
         <f t="shared" si="0"/>
-        <v>5.666666666666667</v>
+        <v>5.333333333333333</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -733,7 +733,7 @@
         <v>10191910</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10">
         <v>7</v>
@@ -756,7 +756,7 @@
       <c r="I10">
         <v>7</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="2">
         <f t="shared" si="0"/>
         <v>5.666666666666667</v>
       </c>
@@ -772,7 +772,7 @@
         <v>7</v>
       </c>
       <c r="D11">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -789,9 +789,9 @@
       <c r="I11">
         <v>7</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="2">
         <f t="shared" si="0"/>
-        <v>5.833333333333333</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -822,13 +822,13 @@
       <c r="I12">
         <v>7</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="2">
         <f t="shared" si="0"/>
         <v>5.833333333333333</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J13" s="4"/>
+      <c r="J13" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
